--- a/StructureDefinition-no-basis-Organization.xlsx
+++ b/StructureDefinition-no-basis-Organization.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/no-basis/StructureDefinition/no-basis-Organization</t>
+    <t>http://hl7.no/fhir/StructureDefinition/no-basis-Organization</t>
   </si>
   <si>
     <t>Version</t>
@@ -1064,7 +1064,7 @@
     <t>Organization.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {http://hl7.no/fhir/no-basis/StructureDefinition/no-basis-Address}
+    <t xml:space="preserve">Address {http://hl7.no/fhir/StructureDefinition/no-basis-Address}
 </t>
   </si>
   <si>
@@ -1100,7 +1100,7 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|http://hl7.no/fhir/no-basis/StructureDefinition/no-basis-Organization)
+    <t xml:space="preserve">Reference(Organization|http://hl7.no/fhir/StructureDefinition/no-basis-Organization)
 </t>
   </si>
   <si>

--- a/StructureDefinition-no-basis-Organization.xlsx
+++ b/StructureDefinition-no-basis-Organization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.17-alpha</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/StructureDefinition-no-basis-Organization.xlsx
+++ b/StructureDefinition-no-basis-Organization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>Name</t>
